--- a/@brainstorming/Units.xlsx
+++ b/@brainstorming/Units.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Dropbox\____ CIV2\@GITHUB\civ2ukraine\@brainstorming\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D90724C-7C63-416B-AA7E-FDA22D87F2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,560 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="182">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Settler</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Warriors</t>
+  </si>
+  <si>
+    <t>Phalanx</t>
+  </si>
+  <si>
+    <t>Archers</t>
+  </si>
+  <si>
+    <t>Legion</t>
+  </si>
+  <si>
+    <t>Pikemen</t>
+  </si>
+  <si>
+    <t>Musket</t>
+  </si>
+  <si>
+    <t>Partisan</t>
+  </si>
+  <si>
+    <t>Alpine</t>
+  </si>
+  <si>
+    <t>Riflemen</t>
+  </si>
+  <si>
+    <t>Marines</t>
+  </si>
+  <si>
+    <t>Paratroo</t>
+  </si>
+  <si>
+    <t>Mech.Inf</t>
+  </si>
+  <si>
+    <t>Horsem</t>
+  </si>
+  <si>
+    <t>Chariot</t>
+  </si>
+  <si>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>Crusader</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Dragoon</t>
+  </si>
+  <si>
+    <t>Cavalry</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Catapult</t>
+  </si>
+  <si>
+    <t>Cannon</t>
+  </si>
+  <si>
+    <t>Artillery</t>
+  </si>
+  <si>
+    <t>Howitzer</t>
+  </si>
+  <si>
+    <t>Fighter</t>
+  </si>
+  <si>
+    <t>Bomber</t>
+  </si>
+  <si>
+    <t>Helicopter</t>
+  </si>
+  <si>
+    <t>Stlgh Fig</t>
+  </si>
+  <si>
+    <t>Stlth Bom</t>
+  </si>
+  <si>
+    <t>Trireme</t>
+  </si>
+  <si>
+    <t>Caravel</t>
+  </si>
+  <si>
+    <t>Galeon</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Ironclad</t>
+  </si>
+  <si>
+    <t>Destroyer</t>
+  </si>
+  <si>
+    <t>Cruiser</t>
+  </si>
+  <si>
+    <t>Aegis</t>
+  </si>
+  <si>
+    <t>Battleshi</t>
+  </si>
+  <si>
+    <t>Submar</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Cruis Msl</t>
+  </si>
+  <si>
+    <t>Nuke</t>
+  </si>
+  <si>
+    <t>Diplomat</t>
+  </si>
+  <si>
+    <t>Spy</t>
+  </si>
+  <si>
+    <t>Caravan</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>Explorer</t>
+  </si>
+  <si>
+    <t>Xtra Ship</t>
+  </si>
+  <si>
+    <t>Xtra Air</t>
+  </si>
+  <si>
+    <t>Xtra Land</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>FirePower</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Until</t>
+  </si>
+  <si>
+    <t>Prereq</t>
+  </si>
+  <si>
+    <t>Civ Engineer</t>
+  </si>
+  <si>
+    <t>Mil Engineer</t>
+  </si>
+  <si>
+    <t>Fanatic</t>
+  </si>
+  <si>
+    <t>Conscript</t>
+  </si>
+  <si>
+    <t>Rebels</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>Platoon</t>
+  </si>
+  <si>
+    <t>Leopard 2</t>
+  </si>
+  <si>
+    <t>Leclerc</t>
+  </si>
+  <si>
+    <t>Abrahams M1</t>
+  </si>
+  <si>
+    <t>Blue Helmets</t>
+  </si>
+  <si>
+    <t>122mm</t>
+  </si>
+  <si>
+    <t>AIM120 Amraam</t>
+  </si>
+  <si>
+    <t>M982 Excalibur 152mm</t>
+  </si>
+  <si>
+    <t>105mm</t>
+  </si>
+  <si>
+    <t>Reservists</t>
+  </si>
+  <si>
+    <t>T72</t>
+  </si>
+  <si>
+    <t>BVP transport</t>
+  </si>
+  <si>
+    <t>Mi24</t>
+  </si>
+  <si>
+    <t>Ka52</t>
+  </si>
+  <si>
+    <t>152mm D20</t>
+  </si>
+  <si>
+    <t>122mm RM70 Grad rocket launchers</t>
+  </si>
+  <si>
+    <t>122m PRAM heavy mortar</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>Harpoon</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>Storm Shadow</t>
+  </si>
+  <si>
+    <t>Rafale</t>
+  </si>
+  <si>
+    <t>FCAS</t>
+  </si>
+  <si>
+    <t>Su57</t>
+  </si>
+  <si>
+    <t>Mig41</t>
+  </si>
+  <si>
+    <t>NGAD</t>
+  </si>
+  <si>
+    <t>J20</t>
+  </si>
+  <si>
+    <t>6th gen China</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>Soldiers</t>
+  </si>
+  <si>
+    <t>155mm CAESAR</t>
+  </si>
+  <si>
+    <t>RPG manpad unit</t>
+  </si>
+  <si>
+    <t>Stinger Javelin manpad unit</t>
+  </si>
+  <si>
+    <t>Patriot SAM</t>
+  </si>
+  <si>
+    <t>Ground Master Thales</t>
+  </si>
+  <si>
+    <t>LRU (american multiple missile launcher)</t>
+  </si>
+  <si>
+    <t>152mm M777 &amp; TRF1</t>
+  </si>
+  <si>
+    <t>AMX10 armored scouter</t>
+  </si>
+  <si>
+    <t>Gepard anti air armor</t>
+  </si>
+  <si>
+    <t>Crotale SAM Iris SAM</t>
+  </si>
+  <si>
+    <t>UAV</t>
+  </si>
+  <si>
+    <t>C51 Galaxy Transport</t>
+  </si>
+  <si>
+    <t>AWACS</t>
+  </si>
+  <si>
+    <t>M113 troop carrier</t>
+  </si>
+  <si>
+    <t>227MM HIMARS</t>
+  </si>
+  <si>
+    <t>Switchblade kamikaze drone</t>
+  </si>
+  <si>
+    <t>Caliber Missile</t>
+  </si>
+  <si>
+    <t>S300</t>
+  </si>
+  <si>
+    <t>S400</t>
+  </si>
+  <si>
+    <t>S550</t>
+  </si>
+  <si>
+    <t>Conscripts</t>
+  </si>
+  <si>
+    <t>Conscripts 2</t>
+  </si>
+  <si>
+    <t>Verba Manpad</t>
+  </si>
+  <si>
+    <t>Su27</t>
+  </si>
+  <si>
+    <t>Su34</t>
+  </si>
+  <si>
+    <t>Mi31</t>
+  </si>
+  <si>
+    <t>Tu160</t>
+  </si>
+  <si>
+    <t>Il76 Transport</t>
+  </si>
+  <si>
+    <t>T90</t>
+  </si>
+  <si>
+    <t>Circus Missile</t>
+  </si>
+  <si>
+    <t>Bastion Missile Launcher</t>
+  </si>
+  <si>
+    <t>BTR troop transport</t>
+  </si>
+  <si>
+    <t>152mm Msta self propeller Howitzers</t>
+  </si>
+  <si>
+    <t>Corvette</t>
+  </si>
+  <si>
+    <t>Landing Ship</t>
+  </si>
+  <si>
+    <t>Kusnetsov CSG</t>
+  </si>
+  <si>
+    <t>Nimitz CSG</t>
+  </si>
+  <si>
+    <t>CDG CSG</t>
+  </si>
+  <si>
+    <t>Ford CSG</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>Mi28</t>
+  </si>
+  <si>
+    <t>Mig29</t>
+  </si>
+  <si>
+    <t>Sniper</t>
+  </si>
+  <si>
+    <t>Ru Sniperr?</t>
+  </si>
+  <si>
+    <t>Spetnaz</t>
+  </si>
+  <si>
+    <t>Spec Forces</t>
+  </si>
+  <si>
+    <t>M120-15 Molot mortar</t>
+  </si>
+  <si>
+    <t>2S12 Sani Mortar</t>
+  </si>
+  <si>
+    <t>T84 Oplot</t>
+  </si>
+  <si>
+    <t>BTR80 transport troop</t>
+  </si>
+  <si>
+    <t>152mm D30</t>
+  </si>
+  <si>
+    <t>BM21 Grad rocket launchers</t>
+  </si>
+  <si>
+    <t>Sapsan 450km missile system</t>
+  </si>
+  <si>
+    <t>Biber Bridge maker (german)</t>
+  </si>
+  <si>
+    <t>Mercenaries</t>
+  </si>
+  <si>
+    <t>Commando</t>
+  </si>
+  <si>
+    <t>For other factions ?</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>long range missile</t>
+  </si>
+  <si>
+    <t>mid range missile</t>
+  </si>
+  <si>
+    <t>short range missile</t>
+  </si>
+  <si>
+    <t>guided bomb</t>
+  </si>
+  <si>
+    <t>152mm shell</t>
+  </si>
+  <si>
+    <t>little shell</t>
+  </si>
+  <si>
+    <t>Tank Wreckage</t>
+  </si>
+  <si>
+    <t>Barbarian Leader ?</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>Hypersonic ultra long range missile</t>
+  </si>
+  <si>
+    <t>Ukr F16</t>
+  </si>
+  <si>
+    <t>T15 Armata tanks</t>
+  </si>
+  <si>
+    <t>T70 modernized</t>
+  </si>
+  <si>
+    <t>T80</t>
+  </si>
+  <si>
+    <t>Mass Conscript</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +585,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +632,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +918,1578 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:Q192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>55</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>61</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>62</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>63</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>64</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>65</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>66</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>67</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>68</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>69</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>70</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>71</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>72</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>73</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>74</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>75</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>76</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>77</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>78</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>79</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>80</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>81</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>82</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>83</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>84</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>85</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>86</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>87</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>88</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>89</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>90</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>91</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>92</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>93</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>94</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>95</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>104</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>106</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>107</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>108</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>110</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>111</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>112</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>113</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>114</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>115</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>116</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>117</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>122</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="5">
+        <v>152</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="5">
+        <v>153</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="5">
+        <v>154</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="5">
+        <v>155</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="5">
+        <v>158</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5">
+        <v>159</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
+        <v>160</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5">
+        <v>161</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="5">
+        <v>162</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5">
+        <v>163</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="5">
+        <v>164</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="5">
+        <v>165</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="5">
+        <v>167</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="5">
+        <v>168</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="5">
+        <v>170</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="5">
+        <v>171</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="5">
+        <v>172</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5">
+        <v>173</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="5">
+        <v>174</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="5">
+        <v>175</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="5">
+        <v>176</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="5">
+        <v>177</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="5">
+        <v>178</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="5">
+        <v>179</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="5">
+        <v>180</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="5">
+        <v>181</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="5">
+        <v>182</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="5">
+        <v>183</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="5">
+        <v>184</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="5">
+        <v>185</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="5">
+        <v>186</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="5">
+        <v>187</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="5">
+        <v>188</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="5">
+        <v>189</v>
+      </c>
+      <c r="C192" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/@brainstorming/Units.xlsx
+++ b/@brainstorming/Units.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Dropbox\____ CIV2\@GITHUB\civ2ukraine\@brainstorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D90724C-7C63-416B-AA7E-FDA22D87F2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15CEE9D-FC2B-45BC-80BF-46C9E81484DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="220">
   <si>
     <t>Name</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Scout</t>
   </si>
   <si>
-    <t>Platoon</t>
-  </si>
-  <si>
     <t>Leopard 2</t>
   </si>
   <si>
@@ -288,12 +285,6 @@
     <t>BVP transport</t>
   </si>
   <si>
-    <t>Mi24</t>
-  </si>
-  <si>
-    <t>Ka52</t>
-  </si>
-  <si>
     <t>152mm D20</t>
   </si>
   <si>
@@ -345,9 +336,6 @@
     <t>B21</t>
   </si>
   <si>
-    <t>Soldiers</t>
-  </si>
-  <si>
     <t>155mm CAESAR</t>
   </si>
   <si>
@@ -369,9 +357,6 @@
     <t>152mm M777 &amp; TRF1</t>
   </si>
   <si>
-    <t>AMX10 armored scouter</t>
-  </si>
-  <si>
     <t>Gepard anti air armor</t>
   </si>
   <si>
@@ -384,12 +369,6 @@
     <t>C51 Galaxy Transport</t>
   </si>
   <si>
-    <t>AWACS</t>
-  </si>
-  <si>
-    <t>M113 troop carrier</t>
-  </si>
-  <si>
     <t>227MM HIMARS</t>
   </si>
   <si>
@@ -411,18 +390,12 @@
     <t>Conscripts</t>
   </si>
   <si>
-    <t>Conscripts 2</t>
-  </si>
-  <si>
     <t>Verba Manpad</t>
   </si>
   <si>
     <t>Su27</t>
   </si>
   <si>
-    <t>Su34</t>
-  </si>
-  <si>
     <t>Mi31</t>
   </si>
   <si>
@@ -438,9 +411,6 @@
     <t>Circus Missile</t>
   </si>
   <si>
-    <t>Bastion Missile Launcher</t>
-  </si>
-  <si>
     <t>BTR troop transport</t>
   </si>
   <si>
@@ -468,9 +438,6 @@
     <t>F18</t>
   </si>
   <si>
-    <t>Mi28</t>
-  </si>
-  <si>
     <t>Mig29</t>
   </si>
   <si>
@@ -534,15 +501,6 @@
     <t>short range missile</t>
   </si>
   <si>
-    <t>guided bomb</t>
-  </si>
-  <si>
-    <t>152mm shell</t>
-  </si>
-  <si>
-    <t>little shell</t>
-  </si>
-  <si>
     <t>Tank Wreckage</t>
   </si>
   <si>
@@ -561,9 +519,6 @@
     <t>Ukr F16</t>
   </si>
   <si>
-    <t>T15 Armata tanks</t>
-  </si>
-  <si>
     <t>T70 modernized</t>
   </si>
   <si>
@@ -571,6 +526,165 @@
   </si>
   <si>
     <t>Mass Conscript</t>
+  </si>
+  <si>
+    <t>Mi35 transport helicopter</t>
+  </si>
+  <si>
+    <t>Mi8 Heli</t>
+  </si>
+  <si>
+    <t>Patching C1 (GRAU index — 96K6 short distance SAM</t>
+  </si>
+  <si>
+    <t>Infantry</t>
+  </si>
+  <si>
+    <t>Su75 "checkmate" future F35 like aircraft CHANGE NAME TO RUSSIAN ONE</t>
+  </si>
+  <si>
+    <t>Tu Pak Ya "Messenger" future bomber CHANGE NAME TO RUSSIAN ONE</t>
+  </si>
+  <si>
+    <t>OTRK « Iskander" missile launcher (ground to ground, 4 500km)</t>
+  </si>
+  <si>
+    <t>BTR-82A land troop carrier vehicle</t>
+  </si>
+  <si>
+    <t>Object 693 : future land trop carrier vehicle</t>
+  </si>
+  <si>
+    <t>Warsaw Submarine</t>
+  </si>
+  <si>
+    <t>Submarine</t>
+  </si>
+  <si>
+    <t>BMP 3 mech inf</t>
+  </si>
+  <si>
+    <t>T14 Armata tanks</t>
+  </si>
+  <si>
+    <t>T15 mech inf</t>
+  </si>
+  <si>
+    <t>Bradley (mech inf)</t>
+  </si>
+  <si>
+    <t>M113 (mech troop carrier)</t>
+  </si>
+  <si>
+    <t>AMX10 armored scouter and tank destroyer</t>
+  </si>
+  <si>
+    <t>Leopard 1</t>
+  </si>
+  <si>
+    <t>Militia</t>
+  </si>
+  <si>
+    <t>T64</t>
+  </si>
+  <si>
+    <t>BRDM2 mech inf</t>
+  </si>
+  <si>
+    <t>BMP 1 mech inf</t>
+  </si>
+  <si>
+    <t>BTR 4 mech inf</t>
+  </si>
+  <si>
+    <t>Humvee (car transport troop)</t>
+  </si>
+  <si>
+    <t>Kozak 2 (Car transport troop)</t>
+  </si>
+  <si>
+    <t>GAZ Tiger (Car troop transport)</t>
+  </si>
+  <si>
+    <t>Tiger Helicopter</t>
+  </si>
+  <si>
+    <t>Civ Conscripts</t>
+  </si>
+  <si>
+    <t>Jas39 Grippen (would act as helicopter than can shoot missiles = can land on roads but looses health until it comes back to repair to simulate its characteristics)</t>
+  </si>
+  <si>
+    <t>F35B same as Grippen but later in tech and shoots further etc</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Azov Infantry</t>
+  </si>
+  <si>
+    <t>Su30 (su27 upgrade 1)</t>
+  </si>
+  <si>
+    <t>Su34 (bomber)</t>
+  </si>
+  <si>
+    <t>Su33 (naval Su27)</t>
+  </si>
+  <si>
+    <t>Su37 (su27 upgrade 3)</t>
+  </si>
+  <si>
+    <t>Su35 (su27 upgrade 2)</t>
+  </si>
+  <si>
+    <t>A50 AWACS</t>
+  </si>
+  <si>
+    <t>A100 AWACS</t>
+  </si>
+  <si>
+    <t>A3A Sentry AWACS</t>
+  </si>
+  <si>
+    <t>Defensive Infantry (entranched)</t>
+  </si>
+  <si>
+    <t>Elite Troops</t>
+  </si>
+  <si>
+    <t>Su25</t>
+  </si>
+  <si>
+    <t>Su24</t>
+  </si>
+  <si>
+    <t>Antonov 124</t>
+  </si>
+  <si>
+    <t>Antonov 225</t>
+  </si>
+  <si>
+    <t>Tu95 Bear</t>
+  </si>
+  <si>
+    <t>Tu22m</t>
+  </si>
+  <si>
+    <t>Mi24 Hind</t>
+  </si>
+  <si>
+    <t>Ka52 Alligator</t>
+  </si>
+  <si>
+    <t>122mm Shell</t>
+  </si>
+  <si>
+    <t>152mm Shell</t>
+  </si>
+  <si>
+    <t>152mm GPS bomb</t>
   </si>
 </sst>
 </file>
@@ -632,10 +746,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -921,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +1090,7 @@
         <v>68</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1010,7 +1123,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1020,6 +1133,9 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1070,7 +1186,7 @@
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1081,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1092,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1113,6 +1229,9 @@
       <c r="B15" t="s">
         <v>13</v>
       </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1204,7 +1323,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1215,10 +1334,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="Q25" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -1229,10 +1348,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="Q26" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -1242,6 +1361,9 @@
       <c r="B27" t="s">
         <v>25</v>
       </c>
+      <c r="C27" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1251,10 +1373,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q28" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -1273,10 +1395,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="Q30" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -1286,6 +1408,9 @@
       <c r="B31" t="s">
         <v>29</v>
       </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1294,6 +1419,9 @@
       <c r="B32" t="s">
         <v>30</v>
       </c>
+      <c r="C32" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -1302,6 +1430,9 @@
       <c r="B33" t="s">
         <v>31</v>
       </c>
+      <c r="C33" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -1368,7 +1499,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1387,7 +1518,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1529,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,7 +1540,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1420,7 +1551,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1431,7 +1562,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,7 +1573,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1452,6 +1583,9 @@
       <c r="B48" t="s">
         <v>46</v>
       </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -1472,7 +1606,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1498,7 +1632,7 @@
       <c r="A53">
         <v>50</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>51</v>
       </c>
       <c r="C53" t="s">
@@ -1513,7 +1647,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1524,7 +1658,7 @@
         <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1535,7 +1669,7 @@
         <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1546,946 +1680,1051 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>55</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>56</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>57</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>58</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>59</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>60</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>61</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>62</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>63</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>64</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>65</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>66</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>67</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>68</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>69</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>70</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>71</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>72</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>73</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>74</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>75</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>76</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>77</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>78</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>79</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>80</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>81</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>82</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>83</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>84</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>85</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>86</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>87</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>88</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>89</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>90</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>91</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>92</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>93</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>94</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>95</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>96</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>97</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>98</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>99</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>100</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>101</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>102</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>105</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>106</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>107</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>108</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>109</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>110</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>111</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>112</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>113</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>114</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>115</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>116</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>117</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>118</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>119</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>120</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>121</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>122</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>123</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>124</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>127</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>128</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>129</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>130</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>131</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>132</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>133</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>142</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>143</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>144</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>145</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>146</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>147</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>148</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>149</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>150</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>151</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>152</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>153</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>154</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>155</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>156</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>157</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>158</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>159</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>160</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>161</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>162</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>163</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>164</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>165</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>55</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>56</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>57</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>58</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>59</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>60</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>61</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>62</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>63</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>64</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>65</v>
-      </c>
-      <c r="C68" s="3" t="s">
+    <row r="169" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>166</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>167</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>168</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>169</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>170</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>171</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>172</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>173</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>174</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>175</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>176</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>177</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>178</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>179</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>180</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>181</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>182</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>183</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>184</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>185</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>186</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>187</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>66</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>67</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>68</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>69</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>70</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>71</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>72</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>73</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>74</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>75</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>76</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>77</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>78</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>79</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>80</v>
-      </c>
-      <c r="C83" s="3" t="s">
+    <row r="191" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>188</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>81</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>82</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>83</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>84</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>85</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>86</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>87</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>88</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>89</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>90</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>91</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>92</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>93</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>94</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>95</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
-        <v>104</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
-        <v>106</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
-        <v>107</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
-        <v>108</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
-        <v>110</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
-        <v>111</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
-        <v>112</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
-        <v>113</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
-        <v>114</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
-        <v>115</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
-        <v>116</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
-        <v>117</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
-        <v>122</v>
-      </c>
-      <c r="C125" s="4" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>189</v>
+      </c>
+      <c r="C192" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="5">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="5">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="5">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="5">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="5">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="5">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="5">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="5">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="5">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="5">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="5">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="5">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="5">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="5">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="5">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="5">
-        <v>152</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="5">
-        <v>153</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
-        <v>154</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="5">
-        <v>155</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="5">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="5">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="5">
-        <v>158</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="5">
-        <v>159</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="5">
-        <v>160</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="5">
-        <v>161</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="5">
-        <v>162</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="5">
-        <v>163</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="5">
-        <v>164</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="5">
-        <v>165</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="5">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="5">
-        <v>167</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="5">
-        <v>168</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="5">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="5">
-        <v>170</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="5">
-        <v>171</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="5">
-        <v>172</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="5">
-        <v>173</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="5">
-        <v>174</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="5">
-        <v>175</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="5">
-        <v>176</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="5">
-        <v>177</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="5">
-        <v>178</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="5">
-        <v>179</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="5">
-        <v>180</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="5">
-        <v>181</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="5">
-        <v>182</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="5">
-        <v>183</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="5">
-        <v>184</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="5">
-        <v>185</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="5">
-        <v>186</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="5">
-        <v>187</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="5">
-        <v>188</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="5">
-        <v>189</v>
-      </c>
-      <c r="C192" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/@brainstorming/Units.xlsx
+++ b/@brainstorming/Units.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Dropbox\____ CIV2\@GITHUB\civ2ukraine\@brainstorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15CEE9D-FC2B-45BC-80BF-46C9E81484DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF5625F-86BB-4166-BE90-5B263E77F0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="242">
   <si>
     <t>Name</t>
   </si>
@@ -273,27 +273,15 @@
     <t>M982 Excalibur 152mm</t>
   </si>
   <si>
-    <t>105mm</t>
-  </si>
-  <si>
     <t>Reservists</t>
   </si>
   <si>
-    <t>T72</t>
-  </si>
-  <si>
     <t>BVP transport</t>
   </si>
   <si>
     <t>152mm D20</t>
   </si>
   <si>
-    <t>122mm RM70 Grad rocket launchers</t>
-  </si>
-  <si>
-    <t>122m PRAM heavy mortar</t>
-  </si>
-  <si>
     <t>F16</t>
   </si>
   <si>
@@ -453,9 +441,6 @@
     <t>Spec Forces</t>
   </si>
   <si>
-    <t>M120-15 Molot mortar</t>
-  </si>
-  <si>
     <t>2S12 Sani Mortar</t>
   </si>
   <si>
@@ -486,12 +471,6 @@
     <t>For other factions ?</t>
   </si>
   <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
     <t>long range missile</t>
   </si>
   <si>
@@ -618,9 +597,6 @@
     <t>F35B same as Grippen but later in tech and shoots further etc</t>
   </si>
   <si>
-    <t>Wagner</t>
-  </si>
-  <si>
     <t>Azov Infantry</t>
   </si>
   <si>
@@ -660,12 +636,6 @@
     <t>Su24</t>
   </si>
   <si>
-    <t>Antonov 124</t>
-  </si>
-  <si>
-    <t>Antonov 225</t>
-  </si>
-  <si>
     <t>Tu95 Bear</t>
   </si>
   <si>
@@ -678,20 +648,116 @@
     <t>Ka52 Alligator</t>
   </si>
   <si>
-    <t>122mm Shell</t>
-  </si>
-  <si>
     <t>152mm Shell</t>
   </si>
   <si>
     <t>152mm GPS bomb</t>
+  </si>
+  <si>
+    <t>DozorB (car troop transport=)</t>
+  </si>
+  <si>
+    <t>2S22 152mm 2S22 self propeler howitzer</t>
+  </si>
+  <si>
+    <t>Ukrainian UAV</t>
+  </si>
+  <si>
+    <t>Antonov 70</t>
+  </si>
+  <si>
+    <t>Anti Tank Infantry</t>
+  </si>
+  <si>
+    <t>Anti Air Infantry</t>
+  </si>
+  <si>
+    <t>T72 Old</t>
+  </si>
+  <si>
+    <t>T62 Old</t>
+  </si>
+  <si>
+    <t>T64 Old</t>
+  </si>
+  <si>
+    <t>T80 Old</t>
+  </si>
+  <si>
+    <t>LOGISTICS</t>
+  </si>
+  <si>
+    <t>Wagner Merc</t>
+  </si>
+  <si>
+    <t>ENOT Merc</t>
+  </si>
+  <si>
+    <t>Patriot Merc</t>
+  </si>
+  <si>
+    <t>Academi Merc</t>
+  </si>
+  <si>
+    <t>Foreign Legion</t>
+  </si>
+  <si>
+    <t>Secret Merc</t>
+  </si>
+  <si>
+    <t>BM21 122mm Grad (rocket launcher)</t>
+  </si>
+  <si>
+    <t>105mm shell</t>
+  </si>
+  <si>
+    <t>120mm shell</t>
+  </si>
+  <si>
+    <t>120mm M120-15 Molot mortar</t>
+  </si>
+  <si>
+    <t>100mm T12 tower howitzer</t>
+  </si>
+  <si>
+    <t>105mm M120</t>
+  </si>
+  <si>
+    <t>122mm RM70 Grad rocket launchers (from Czech Republic)</t>
+  </si>
+  <si>
+    <t>120mm 2B11 Sani mortar</t>
+  </si>
+  <si>
+    <t>Int. Volunteers Inf.</t>
+  </si>
+  <si>
+    <t>Rebels (Transport?)</t>
+  </si>
+  <si>
+    <t>Rebels (Oldest tank)</t>
+  </si>
+  <si>
+    <t>Rebels (Kinda modern tank)</t>
+  </si>
+  <si>
+    <t>Rebels (Militia)</t>
+  </si>
+  <si>
+    <t>Rebels (better Militia)</t>
+  </si>
+  <si>
+    <t>Rebels (infantry)</t>
+  </si>
+  <si>
+    <t>Rebels (modern infantry)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,8 +773,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,6 +822,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -746,12 +847,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q192"/>
+  <dimension ref="A2:P192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1198,7 @@
         <v>68</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1123,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1134,29 +1242,29 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C7" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>73</v>
+      <c r="C8" s="10" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1166,16 +1274,19 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C9" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>73</v>
+      <c r="C10" s="10" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1186,7 +1297,7 @@
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1197,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1208,18 +1319,18 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>73</v>
+      <c r="C14" s="10" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1229,8 +1340,8 @@
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>197</v>
+      <c r="C15" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1240,121 +1351,121 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="C17" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>15</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C25" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1362,65 +1473,62 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C30" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
-        <v>209</v>
+      <c r="C32" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1430,8 +1538,8 @@
       <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
-        <v>210</v>
+      <c r="C33" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1441,38 +1549,41 @@
       <c r="B34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="C34" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>32</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
         <v>33</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
         <v>34</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>73</v>
+      <c r="C37" s="10" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,6 +1593,9 @@
       <c r="B38" t="s">
         <v>36</v>
       </c>
+      <c r="C38" s="6" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1490,6 +1604,9 @@
       <c r="B39" t="s">
         <v>37</v>
       </c>
+      <c r="C39" s="6" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -1498,8 +1615,8 @@
       <c r="B40" t="s">
         <v>38</v>
       </c>
-      <c r="C40" t="s">
-        <v>158</v>
+      <c r="C40" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1509,6 +1626,9 @@
       <c r="B41" t="s">
         <v>39</v>
       </c>
+      <c r="C41" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -1517,8 +1637,8 @@
       <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
-        <v>217</v>
+      <c r="C42" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1528,8 +1648,8 @@
       <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
-        <v>218</v>
+      <c r="C43" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1539,8 +1659,8 @@
       <c r="B44" t="s">
         <v>42</v>
       </c>
-      <c r="C44" t="s">
-        <v>219</v>
+      <c r="C44" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1550,8 +1670,8 @@
       <c r="B45" t="s">
         <v>43</v>
       </c>
-      <c r="C45" t="s">
-        <v>157</v>
+      <c r="C45" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,8 +1681,8 @@
       <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="C46" t="s">
-        <v>156</v>
+      <c r="C46" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1572,8 +1692,8 @@
       <c r="B47" t="s">
         <v>45</v>
       </c>
-      <c r="C47" t="s">
-        <v>155</v>
+      <c r="C47" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1606,7 +1726,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1616,6 +1736,9 @@
       <c r="B51" t="s">
         <v>49</v>
       </c>
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -1647,7 +1770,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1658,7 +1781,7 @@
         <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1669,7 +1792,7 @@
         <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1679,8 +1802,8 @@
       <c r="B57" t="s">
         <v>56</v>
       </c>
-      <c r="C57" t="s">
-        <v>162</v>
+      <c r="C57" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1720,7 +1843,7 @@
         <v>59</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1752,7 +1875,7 @@
         <v>63</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1760,7 +1883,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1768,7 +1891,7 @@
         <v>65</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1776,7 +1899,7 @@
         <v>66</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1784,7 +1907,7 @@
         <v>67</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1792,7 +1915,7 @@
         <v>68</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1800,7 +1923,7 @@
         <v>69</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1808,7 +1931,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1816,7 +1939,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1824,7 +1947,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1832,7 +1955,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1840,7 +1963,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1848,7 +1971,7 @@
         <v>75</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1856,7 +1979,7 @@
         <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1864,7 +1987,7 @@
         <v>77</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1872,7 +1995,7 @@
         <v>78</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1880,7 +2003,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1888,7 +2011,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1896,7 +2019,7 @@
         <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1904,7 +2027,7 @@
         <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1912,7 +2035,7 @@
         <v>83</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1920,7 +2043,7 @@
         <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1928,7 +2051,7 @@
         <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1936,7 +2059,7 @@
         <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1944,7 +2067,7 @@
         <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1952,7 +2075,7 @@
         <v>88</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1960,7 +2083,7 @@
         <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1968,7 +2091,7 @@
         <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1976,7 +2099,7 @@
         <v>91</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1984,7 +2107,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1992,7 +2115,7 @@
         <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2000,7 +2123,7 @@
         <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2008,7 +2131,7 @@
         <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2016,7 +2139,7 @@
         <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2024,7 +2147,7 @@
         <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2032,7 +2155,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2040,7 +2163,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2048,7 +2171,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2056,7 +2179,7 @@
         <v>101</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2064,13 +2187,16 @@
         <v>102</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>103</v>
       </c>
+      <c r="C106" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="107" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
@@ -2081,31 +2207,31 @@
       <c r="A108" s="3">
         <v>105</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>170</v>
+      <c r="C108" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>106</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>207</v>
+      <c r="C109" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>107</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>83</v>
+      <c r="C110" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>108</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2114,7 +2240,7 @@
         <v>109</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2122,7 +2248,7 @@
         <v>110</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2130,7 +2256,7 @@
         <v>111</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2138,7 +2264,7 @@
         <v>112</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2146,23 +2272,23 @@
         <v>113</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>114</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>189</v>
+      <c r="C117" s="5" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>115</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>191</v>
+      <c r="C118" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2170,15 +2296,15 @@
         <v>116</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>117</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>144</v>
+      <c r="C120" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2186,7 +2312,7 @@
         <v>118</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2194,7 +2320,7 @@
         <v>119</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2202,7 +2328,7 @@
         <v>120</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2210,15 +2336,15 @@
         <v>121</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>87</v>
+        <v>232</v>
       </c>
     </row>
     <row r="125" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>122</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>88</v>
+      <c r="C125" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="126" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2226,117 +2352,144 @@
         <v>123</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>124</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>212</v>
+      <c r="C127" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>125</v>
       </c>
+      <c r="C128" s="3" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="129" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>126</v>
       </c>
+      <c r="C129" s="5" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="130" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>127</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <v>128</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
+      <c r="C131" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
         <v>129</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
+      <c r="C132" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
         <v>130</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
+      <c r="C133" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <v>131</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
+      <c r="C134" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <v>132</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
+      <c r="C135" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <v>133</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>208</v>
+      <c r="C136" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="137" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>134</v>
       </c>
+      <c r="C137" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="138" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>135</v>
       </c>
+      <c r="C138" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="139" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>136</v>
       </c>
+      <c r="C139" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="140" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>137</v>
       </c>
+      <c r="C140" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="141" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>138</v>
       </c>
+      <c r="C141" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="142" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>139</v>
       </c>
+      <c r="C142" s="4" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="143" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>140</v>
       </c>
+      <c r="C143" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="144" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
@@ -2348,7 +2501,7 @@
         <v>142</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2356,7 +2509,7 @@
         <v>143</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2364,7 +2517,7 @@
         <v>144</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2372,7 +2525,7 @@
         <v>145</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="149" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2380,7 +2533,7 @@
         <v>146</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2388,7 +2541,7 @@
         <v>147</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="151" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2396,7 +2549,7 @@
         <v>148</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2404,7 +2557,7 @@
         <v>149</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2412,7 +2565,7 @@
         <v>150</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2420,7 +2573,7 @@
         <v>151</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2428,7 +2581,7 @@
         <v>152</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2436,7 +2589,7 @@
         <v>153</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2444,7 +2597,7 @@
         <v>154</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="158" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2452,7 +2605,7 @@
         <v>155</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="159" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2460,7 +2613,7 @@
         <v>156</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="160" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2468,7 +2621,7 @@
         <v>157</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2476,7 +2629,7 @@
         <v>158</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2484,7 +2637,7 @@
         <v>159</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2492,7 +2645,7 @@
         <v>160</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="164" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2500,7 +2653,7 @@
         <v>161</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="165" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2508,7 +2661,7 @@
         <v>162</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2516,7 +2669,7 @@
         <v>163</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="167" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2524,7 +2677,7 @@
         <v>164</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2532,7 +2685,7 @@
         <v>165</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2540,7 +2693,7 @@
         <v>166</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2548,7 +2701,7 @@
         <v>167</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="171" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2556,7 +2709,7 @@
         <v>168</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="172" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2564,7 +2717,7 @@
         <v>169</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2572,7 +2725,7 @@
         <v>170</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2580,7 +2733,7 @@
         <v>171</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2596,7 +2749,7 @@
         <v>173</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="177" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2604,7 +2757,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="178" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2612,7 +2765,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="179" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2620,7 +2773,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2628,7 +2781,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="181" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2636,7 +2789,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2644,7 +2797,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="183" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2652,7 +2805,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2660,7 +2813,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="185" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2668,7 +2821,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="186" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2676,7 +2829,7 @@
         <v>183</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2684,7 +2837,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2692,7 +2845,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="189" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2700,7 +2853,7 @@
         <v>186</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="190" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2708,7 +2861,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="191" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2716,15 +2869,15 @@
         <v>188</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="8">
         <v>189</v>
       </c>
-      <c r="C192" t="s">
-        <v>159</v>
+      <c r="C192" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
